--- a/bankingTransaction/checklist_bank.xlsx
+++ b/bankingTransaction/checklist_bank.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\trainee\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="2475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Bank</t>
   </si>
@@ -78,6 +74,12 @@
   </si>
   <si>
     <t>commits</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>generateReport</t>
   </si>
 </sst>
 </file>
@@ -121,9 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,13 +414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -470,48 +479,240 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bankingTransaction/checklist_bank.xlsx
+++ b/bankingTransaction/checklist_bank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="2475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>Bank</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +486,18 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -504,10 +512,18 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -555,8 +571,12 @@
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -595,8 +615,12 @@
       <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -613,8 +637,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -631,8 +655,8 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -671,8 +695,12 @@
       <c r="L10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -711,8 +739,12 @@
       <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bankingTransaction/checklist_bank.xlsx
+++ b/bankingTransaction/checklist_bank.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Bank</t>
   </si>
@@ -85,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,44 +408,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -482,271 +493,306 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
